--- a/labeling-example.xlsx
+++ b/labeling-example.xlsx
@@ -106,7 +106,7 @@
     <t xml:space="preserve">1. 3rd person source (named)</t>
   </si>
   <si>
-    <t xml:space="preserve">“The president has been wanting to play golf with Kim Jong Un for years,” the Press Secretary stated.</t>
+    <t xml:space="preserve">“The president has been wanting to play golf with Kim Jong Un for years,” he stated.</t>
   </si>
   <si>
     <t xml:space="preserve">“Kim finally agreed this past weekend, and the state department is arranging all the details for a game to be played in the upcoming summit in Finland.</t>
@@ -418,7 +418,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
